--- a/Crosswalk/B9_UDS4_programmatic_crosswalk.xlsx
+++ b/Crosswalk/B9_UDS4_programmatic_crosswalk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfmurch\Downloads\updated_crosswalks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfmurch\Downloads\Json_SOPS\Crosswalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8724" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8720" uniqueCount="895">
   <si>
     <t>TEMPLATE - UDS3 REDCap
 Based on Kansas ADRC implementation at https://naccdata.org/adrc-resources/redcap</t>
@@ -1921,18 +1921,9 @@
     <t>UDS Form</t>
   </si>
   <si>
-    <t>IF(DECCLCOG==1 || DECCLBE==1) DECCLIN=1 ELSE{DECCLIN=0}</t>
-  </si>
-  <si>
     <t>Merging rule</t>
   </si>
   <si>
-    <t>UDS3 DECCLBE must also be "0 No (If No, SKIP TO QUESTION 13)"; Merges DECCLCOG | DECCLBE onto DECCLIN</t>
-  </si>
-  <si>
-    <t>UDS3 DECCLBE must also be "0"; Merges DECCLCOG | DECCLBE onto DECCLIN</t>
-  </si>
-  <si>
     <t>ADRC decision to map cognitive domain of UDS3 to memory in UDS4</t>
   </si>
   <si>
@@ -2581,34 +2572,7 @@
     <t>&lt;div class="rich-text-field-label"&gt;&lt;p&gt;20. Indicate the predominant domain that was first recognized as changed in the participant:&lt;/p&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>0 &amp; 0</t>
-  </si>
-  <si>
-    <t>0 No &amp; 0 No</t>
-  </si>
-  <si>
-    <t>1 Yes | 1 Yes</t>
-  </si>
-  <si>
-    <t>1 | 1</t>
-  </si>
-  <si>
     <t>B9 | B9</t>
-  </si>
-  <si>
-    <t>3 | 8</t>
-  </si>
-  <si>
-    <t>3. Based on the clinician's judgment, is the subject currently experiencing meaningful impairment in cognition? | 8. Based on the clinician's judgment, is the subject currently experiencing any kind of behavioral symptoms?</t>
-  </si>
-  <si>
-    <t>Numeric factor | Numeric factor</t>
-  </si>
-  <si>
-    <t>0-1 | 0-1</t>
-  </si>
-  <si>
-    <t>Merges DECCLCOG and DECCLBE onto DECCLIN</t>
   </si>
   <si>
     <t>Merging</t>
@@ -3873,6 +3837,48 @@
   </si>
   <si>
     <t>SEE B9 MAPPINGS - ADRC DECISIONS FOR ALTERNATE MAPPING RULES BASED ON CENTER-SPECIFIC NEEDS RELATED TO LINKING CONCEPTS</t>
+  </si>
+  <si>
+    <t>DECCLCOG | DECCLBE | DECCLMOT</t>
+  </si>
+  <si>
+    <t>Merges DECCLCOG and DECCLBE and DECCLMOT onto DECCLIN</t>
+  </si>
+  <si>
+    <t>3 | 8 | 13</t>
+  </si>
+  <si>
+    <t>3. Based on the clinician's judgment, is the subject currently experiencing meaningful impairment in cognition? | 8. Based on the clinician's judgment, is the subject currently experiencing any kind of behavioral symptoms? | 13. Based on the clinician's judgment, is the subject currently experiencing any motor symptoms?</t>
+  </si>
+  <si>
+    <t>Numeric factor | Numeric factor | Numeric factor</t>
+  </si>
+  <si>
+    <t>0-1 | 0-1 | 0-1</t>
+  </si>
+  <si>
+    <t>0 &amp; 0 &amp; 0</t>
+  </si>
+  <si>
+    <t>All UDS3 must be "0"; Merges DECCLCOG | DECCLBE | DECCLMOT onto DECCLIN</t>
+  </si>
+  <si>
+    <t>1 | 1 | 1</t>
+  </si>
+  <si>
+    <t>0 No (If No, SKIP TO QUESTION 8) &amp; 0 No (If No, SKIP TO QUESTION 13) &amp; 0 No (If No, SKIP TO QUESTION 20)</t>
+  </si>
+  <si>
+    <t>All UDS3 must be "0 No" variant; Merges DECCLCOG | DECCLBE | DECCLMOT onto DECCLIN</t>
+  </si>
+  <si>
+    <t>1 Yes | 1 Yes | 1 Yes</t>
+  </si>
+  <si>
+    <t>IF(DECCLCOG==1 || DECCLBE==1 || DECCLMOT==1) DECCLIN=1 ELSE{DECCLIN=0}</t>
+  </si>
+  <si>
+    <t>&lt;NULL&gt;</t>
   </si>
 </sst>
 </file>
@@ -4436,13 +4442,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -4466,20 +4486,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Check Cell" xfId="1"/>
@@ -4867,21 +4873,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="E1" s="65" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="E1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="I1" s="65" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="I1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4913,38 +4919,38 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="70" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="H3" s="39"/>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="70" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="40" t="s">
         <v>8</v>
       </c>
@@ -4952,7 +4958,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="39"/>
-      <c r="E4" s="66"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="40" t="s">
         <v>8</v>
       </c>
@@ -4960,7 +4966,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="39"/>
-      <c r="I4" s="66"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="40" t="s">
         <v>10</v>
       </c>
@@ -4969,8 +4975,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
-        <v>801</v>
+      <c r="A5" s="70" t="s">
+        <v>789</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>12</v>
@@ -4979,8 +4985,8 @@
         <v>13</v>
       </c>
       <c r="D5" s="39"/>
-      <c r="E5" s="66" t="s">
-        <v>801</v>
+      <c r="E5" s="70" t="s">
+        <v>789</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>12</v>
@@ -4989,8 +4995,8 @@
         <v>13</v>
       </c>
       <c r="H5" s="39"/>
-      <c r="I5" s="66" t="s">
-        <v>801</v>
+      <c r="I5" s="70" t="s">
+        <v>789</v>
       </c>
       <c r="J5" s="37" t="s">
         <v>14</v>
@@ -5000,57 +5006,57 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="66"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="H6" s="39"/>
-      <c r="I6" s="66"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="42" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="44" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="D7" s="39"/>
-      <c r="E7" s="66"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="44" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="H7" s="39"/>
-      <c r="I7" s="66"/>
+      <c r="I7" s="70"/>
       <c r="J7" s="44" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="42" t="s">
         <v>19</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="66"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="42" t="s">
         <v>19</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="39"/>
-      <c r="I8" s="66"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="42" t="s">
         <v>19</v>
       </c>
@@ -5075,32 +5081,32 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="66"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="44" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="H9" s="39"/>
-      <c r="I9" s="66"/>
+      <c r="I9" s="70"/>
       <c r="J9" s="44" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="42" t="s">
         <v>24</v>
       </c>
@@ -5108,24 +5114,24 @@
         <v>25</v>
       </c>
       <c r="D10" s="39"/>
-      <c r="E10" s="66"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="42" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="H10" s="39"/>
-      <c r="I10" s="66"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="42" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="44" t="s">
         <v>26</v>
       </c>
@@ -5133,7 +5139,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="66"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="44" t="s">
         <v>26</v>
       </c>
@@ -5141,7 +5147,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="39"/>
-      <c r="I11" s="66"/>
+      <c r="I11" s="70"/>
       <c r="J11" s="44" t="s">
         <v>26</v>
       </c>
@@ -5150,83 +5156,83 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="42" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="66"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="42" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="H12" s="39"/>
-      <c r="I12" s="66"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="42" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="44" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="66"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="44" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="H13" s="39"/>
-      <c r="I13" s="66"/>
+      <c r="I13" s="70"/>
       <c r="J13" s="44" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="66"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="40" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="66"/>
+      <c r="I14" s="70"/>
       <c r="J14" s="40" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="47" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
-        <v>815</v>
+      <c r="A15" s="70" t="s">
+        <v>803</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>115</v>
@@ -5235,8 +5241,8 @@
         <v>116</v>
       </c>
       <c r="D15" s="39"/>
-      <c r="E15" s="66" t="s">
-        <v>815</v>
+      <c r="E15" s="70" t="s">
+        <v>803</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>117</v>
@@ -5245,8 +5251,8 @@
         <v>29</v>
       </c>
       <c r="H15" s="39"/>
-      <c r="I15" s="66" t="s">
-        <v>815</v>
+      <c r="I15" s="70" t="s">
+        <v>803</v>
       </c>
       <c r="J15" s="37" t="s">
         <v>118</v>
@@ -5256,32 +5262,32 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="42" t="s">
         <v>119</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="D16" s="39"/>
-      <c r="E16" s="66"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="42" t="s">
         <v>120</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="H16" s="39"/>
-      <c r="I16" s="66"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="42" t="s">
         <v>121</v>
       </c>
       <c r="K16" s="43" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="44" t="s">
         <v>30</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="39"/>
-      <c r="E17" s="66"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="44" t="s">
         <v>30</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="39"/>
-      <c r="I17" s="66"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="44" t="s">
         <v>30</v>
       </c>
@@ -5306,23 +5312,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="48" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="66"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="48" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="66"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="48" t="s">
         <v>34</v>
       </c>
@@ -5331,53 +5337,53 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="44" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="66"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="44" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="H19" s="39"/>
-      <c r="I19" s="66"/>
+      <c r="I19" s="70"/>
       <c r="J19" s="44" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="40" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="66"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="40" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="H20" s="39"/>
-      <c r="I20" s="66"/>
+      <c r="I20" s="70"/>
       <c r="J20" s="40" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5470,18 +5476,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="E5:E14"/>
     <mergeCell ref="I5:I14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="E15:E20"/>
     <mergeCell ref="I15:I20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5516,31 +5522,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
     </row>
     <row r="2" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -6383,7 +6389,7 @@
         <v>318</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>57</v>
@@ -6413,7 +6419,7 @@
         <v>58</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>140</v>
@@ -7419,7 +7425,7 @@
         <v>267</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>58</v>
@@ -7449,7 +7455,7 @@
         <v>58</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="M32" s="19" t="s">
         <v>140</v>
@@ -9844,31 +9850,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -10507,7 +10513,7 @@
         <v>334</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="P12" s="19" t="s">
         <v>64</v>
@@ -10566,7 +10572,7 @@
         <v>130</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>64</v>
@@ -10627,7 +10633,7 @@
         <v>409</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>64</v>
@@ -10649,7 +10655,7 @@
         <v>318</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>57</v>
@@ -10679,7 +10685,7 @@
         <v>58</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>140</v>
@@ -10688,7 +10694,7 @@
         <v>131</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="P15" s="16" t="s">
         <v>64</v>
@@ -10749,7 +10755,7 @@
         <v>315</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="P16" s="16" t="s">
         <v>64</v>
@@ -10810,7 +10816,7 @@
         <v>312</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="P17" s="16" t="s">
         <v>64</v>
@@ -10871,7 +10877,7 @@
         <v>309</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="P18" s="16" t="s">
         <v>64</v>
@@ -10932,7 +10938,7 @@
         <v>306</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="P19" s="16" t="s">
         <v>64</v>
@@ -10993,7 +10999,7 @@
         <v>303</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>64</v>
@@ -11054,7 +11060,7 @@
         <v>300</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="P21" s="16" t="s">
         <v>64</v>
@@ -11115,7 +11121,7 @@
         <v>297</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="P22" s="16" t="s">
         <v>64</v>
@@ -11176,7 +11182,7 @@
         <v>294</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="P23" s="16" t="s">
         <v>69</v>
@@ -11237,7 +11243,7 @@
         <v>290</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="P24" s="16" t="s">
         <v>64</v>
@@ -11298,7 +11304,7 @@
         <v>287</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="P25" s="16" t="s">
         <v>61</v>
@@ -11357,7 +11363,7 @@
         <v>406</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="P26" s="16" t="s">
         <v>64</v>
@@ -11416,7 +11422,7 @@
         <v>279</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="P27" s="16" t="s">
         <v>61</v>
@@ -11477,7 +11483,7 @@
         <v>404</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="P28" s="16" t="s">
         <v>64</v>
@@ -11538,7 +11544,7 @@
         <v>274</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="P29" s="16" t="s">
         <v>61</v>
@@ -11599,7 +11605,7 @@
         <v>403</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="P30" s="16" t="s">
         <v>69</v>
@@ -11621,7 +11627,7 @@
         <v>267</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>58</v>
@@ -11651,7 +11657,7 @@
         <v>58</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="M31" s="19" t="s">
         <v>140</v>
@@ -11660,7 +11666,7 @@
         <v>402</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="P31" s="16" t="s">
         <v>64</v>
@@ -11721,7 +11727,7 @@
         <v>264</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="P32" s="16" t="s">
         <v>64</v>
@@ -11782,7 +11788,7 @@
         <v>261</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="P33" s="16" t="s">
         <v>64</v>
@@ -11843,7 +11849,7 @@
         <v>258</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P34" s="16" t="s">
         <v>64</v>
@@ -11904,7 +11910,7 @@
         <v>255</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="P35" s="16" t="s">
         <v>64</v>
@@ -11963,7 +11969,7 @@
         <v>252</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="P36" s="16" t="s">
         <v>69</v>
@@ -12024,7 +12030,7 @@
         <v>248</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="P37" s="16" t="s">
         <v>64</v>
@@ -12085,7 +12091,7 @@
         <v>245</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="P38" s="16" t="s">
         <v>64</v>
@@ -12146,7 +12152,7 @@
         <v>242</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="P39" s="16" t="s">
         <v>64</v>
@@ -12207,7 +12213,7 @@
         <v>239</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="P40" s="16" t="s">
         <v>64</v>
@@ -12268,7 +12274,7 @@
         <v>236</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="P41" s="16" t="s">
         <v>64</v>
@@ -12329,7 +12335,7 @@
         <v>233</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="P42" s="16" t="s">
         <v>64</v>
@@ -12390,7 +12396,7 @@
         <v>230</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="P43" s="16" t="s">
         <v>64</v>
@@ -12451,7 +12457,7 @@
         <v>227</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="P44" s="16" t="s">
         <v>69</v>
@@ -12512,7 +12518,7 @@
         <v>223</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="P45" s="16" t="s">
         <v>64</v>
@@ -12573,7 +12579,7 @@
         <v>220</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="P46" s="16" t="s">
         <v>64</v>
@@ -12634,7 +12640,7 @@
         <v>217</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="P47" s="16" t="s">
         <v>61</v>
@@ -12693,7 +12699,7 @@
         <v>399</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="P48" s="16" t="s">
         <v>64</v>
@@ -12752,7 +12758,7 @@
         <v>209</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="P49" s="16" t="s">
         <v>61</v>
@@ -12813,7 +12819,7 @@
         <v>397</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P50" s="16" t="s">
         <v>64</v>
@@ -12874,7 +12880,7 @@
         <v>204</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="P51" s="16" t="s">
         <v>61</v>
@@ -12935,7 +12941,7 @@
         <v>396</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="P52" s="16" t="s">
         <v>69</v>
@@ -12996,7 +13002,7 @@
         <v>395</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="P53" s="16" t="s">
         <v>64</v>
@@ -13057,7 +13063,7 @@
         <v>194</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="P54" s="16" t="s">
         <v>64</v>
@@ -13118,7 +13124,7 @@
         <v>191</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="P55" s="16" t="s">
         <v>64</v>
@@ -13179,7 +13185,7 @@
         <v>188</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="P56" s="16" t="s">
         <v>64</v>
@@ -13238,7 +13244,7 @@
         <v>185</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="P57" s="16" t="s">
         <v>64</v>
@@ -13295,7 +13301,7 @@
         <v>393</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="P58" s="16" t="s">
         <v>64</v>
@@ -13354,7 +13360,7 @@
         <v>391</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="P59" s="16" t="s">
         <v>64</v>
@@ -13413,7 +13419,7 @@
         <v>174</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="P60" s="16" t="s">
         <v>61</v>
@@ -13472,7 +13478,7 @@
         <v>389</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="P61" s="16" t="s">
         <v>64</v>
@@ -13529,7 +13535,7 @@
         <v>169</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="P62" s="16" t="s">
         <v>64</v>
@@ -13588,7 +13594,7 @@
         <v>388</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P63" s="16" t="s">
         <v>64</v>
@@ -13645,7 +13651,7 @@
         <v>161</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="P64" s="16" t="s">
         <v>69</v>
@@ -13704,7 +13710,7 @@
         <v>386</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="P65" s="16" t="s">
         <v>69</v>
@@ -13763,7 +13769,7 @@
         <v>384</v>
       </c>
       <c r="O66" s="16" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="P66" s="16" t="s">
         <v>64</v>
@@ -13822,7 +13828,7 @@
         <v>382</v>
       </c>
       <c r="O67" s="16" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="P67" s="16" t="s">
         <v>64</v>
@@ -13879,7 +13885,7 @@
         <v>380</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="P68" s="16" t="s">
         <v>64</v>
@@ -13936,7 +13942,7 @@
         <v>379</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="P69" s="16" t="s">
         <v>64</v>
@@ -13997,31 +14003,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
     </row>
     <row r="2" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -14433,7 +14439,7 @@
         <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="P8" s="19" t="s">
         <v>75</v>
@@ -14506,7 +14512,7 @@
         <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="P9" s="19" t="s">
         <v>61</v>
@@ -14578,7 +14584,7 @@
         <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="P10" s="19" t="s">
         <v>64</v>
@@ -14650,7 +14656,7 @@
         <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="P11" s="19" t="s">
         <v>64</v>
@@ -14722,7 +14728,7 @@
         <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="P12" s="19" t="s">
         <v>64</v>
@@ -14794,7 +14800,7 @@
         <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="P13" s="19" t="s">
         <v>64</v>
@@ -14866,7 +14872,7 @@
         <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>64</v>
@@ -14938,7 +14944,7 @@
         <v>409</v>
       </c>
       <c r="O15" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="P15" s="16" t="s">
         <v>64</v>
@@ -15010,7 +15016,7 @@
         <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="P16" s="16" t="s">
         <v>64</v>
@@ -15084,7 +15090,7 @@
         <v>499</v>
       </c>
       <c r="O17" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="P17" s="16" t="s">
         <v>64</v>
@@ -15156,7 +15162,7 @@
         <v>406</v>
       </c>
       <c r="O18" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="P18" s="16" t="s">
         <v>64</v>
@@ -15228,7 +15234,7 @@
         <v>404</v>
       </c>
       <c r="O19" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="P19" s="16" t="s">
         <v>64</v>
@@ -15293,7 +15299,7 @@
         <v>58</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>140</v>
@@ -15302,7 +15308,7 @@
         <v>403</v>
       </c>
       <c r="O20" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>64</v>
@@ -15376,7 +15382,7 @@
         <v>402</v>
       </c>
       <c r="O21" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="P21" s="16" t="s">
         <v>64</v>
@@ -15450,7 +15456,7 @@
         <v>264</v>
       </c>
       <c r="O22" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="P22" s="16" t="s">
         <v>64</v>
@@ -15524,7 +15530,7 @@
         <v>261</v>
       </c>
       <c r="O23" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="P23" s="16" t="s">
         <v>64</v>
@@ -15598,7 +15604,7 @@
         <v>493</v>
       </c>
       <c r="O24" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="P24" s="16" t="s">
         <v>64</v>
@@ -15672,7 +15678,7 @@
         <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="P25" s="16" t="s">
         <v>64</v>
@@ -15746,7 +15752,7 @@
         <v>239</v>
       </c>
       <c r="O26" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="P26" s="16" t="s">
         <v>64</v>
@@ -15820,7 +15826,7 @@
         <v>236</v>
       </c>
       <c r="O27" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="P27" s="16" t="s">
         <v>64</v>
@@ -15894,7 +15900,7 @@
         <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="P28" s="16" t="s">
         <v>64</v>
@@ -15968,7 +15974,7 @@
         <v>230</v>
       </c>
       <c r="O29" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="P29" s="16" t="s">
         <v>64</v>
@@ -16042,7 +16048,7 @@
         <v>227</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="P30" s="19" t="s">
         <v>61</v>
@@ -16116,7 +16122,7 @@
         <v>223</v>
       </c>
       <c r="O31" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="P31" s="16" t="s">
         <v>69</v>
@@ -16190,7 +16196,7 @@
         <v>399</v>
       </c>
       <c r="O32" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="P32" s="16" t="s">
         <v>64</v>
@@ -16264,7 +16270,7 @@
         <v>209</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="P33" s="19" t="s">
         <v>61</v>
@@ -16338,7 +16344,7 @@
         <v>397</v>
       </c>
       <c r="O34" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="P34" s="16" t="s">
         <v>64</v>
@@ -16412,7 +16418,7 @@
         <v>334</v>
       </c>
       <c r="O35" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="P35" s="16" t="s">
         <v>64</v>
@@ -16486,7 +16492,7 @@
         <v>491</v>
       </c>
       <c r="O36" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="P36" s="16" t="s">
         <v>64</v>
@@ -16560,7 +16566,7 @@
         <v>490</v>
       </c>
       <c r="O37" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="P37" s="16" t="s">
         <v>64</v>
@@ -16632,7 +16638,7 @@
         <v>488</v>
       </c>
       <c r="O38" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="P38" s="16" t="s">
         <v>64</v>
@@ -16706,7 +16712,7 @@
         <v>487</v>
       </c>
       <c r="O39" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="P39" s="16" t="s">
         <v>64</v>
@@ -16780,7 +16786,7 @@
         <v>486</v>
       </c>
       <c r="O40" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="P40" s="16" t="s">
         <v>64</v>
@@ -16853,7 +16859,7 @@
         <v>485</v>
       </c>
       <c r="O41" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="P41" s="16" t="s">
         <v>69</v>
@@ -16926,7 +16932,7 @@
         <v>484</v>
       </c>
       <c r="O42" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="P42" s="16" t="s">
         <v>64</v>
@@ -16997,7 +17003,7 @@
         <v>482</v>
       </c>
       <c r="O43" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="P43" s="16" t="s">
         <v>64</v>
@@ -17070,7 +17076,7 @@
         <v>481</v>
       </c>
       <c r="O44" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="P44" s="16" t="s">
         <v>64</v>
@@ -17143,7 +17149,7 @@
         <v>480</v>
       </c>
       <c r="O45" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="P45" s="16" t="s">
         <v>64</v>
@@ -17214,7 +17220,7 @@
         <v>478</v>
       </c>
       <c r="O46" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="P46" s="16" t="s">
         <v>64</v>
@@ -17285,7 +17291,7 @@
         <v>476</v>
       </c>
       <c r="O47" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="P47" s="16" t="s">
         <v>64</v>
@@ -17356,7 +17362,7 @@
         <v>475</v>
       </c>
       <c r="O48" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="P48" s="16" t="s">
         <v>64</v>
@@ -17427,7 +17433,7 @@
         <v>473</v>
       </c>
       <c r="O49" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="P49" s="16" t="s">
         <v>64</v>
@@ -17498,7 +17504,7 @@
         <v>471</v>
       </c>
       <c r="O50" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="P50" s="16" t="s">
         <v>69</v>
@@ -17571,7 +17577,7 @@
         <v>470</v>
       </c>
       <c r="O51" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="P51" s="16" t="s">
         <v>64</v>
@@ -17644,7 +17650,7 @@
         <v>469</v>
       </c>
       <c r="O52" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="P52" s="16" t="s">
         <v>64</v>
@@ -17714,7 +17720,7 @@
         <v>467</v>
       </c>
       <c r="O53" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="P53" s="16" t="s">
         <v>64</v>
@@ -17784,7 +17790,7 @@
         <v>465</v>
       </c>
       <c r="O54" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="P54" s="16" t="s">
         <v>64</v>
@@ -17854,7 +17860,7 @@
         <v>463</v>
       </c>
       <c r="O55" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="P55" s="16" t="s">
         <v>64</v>
@@ -17924,7 +17930,7 @@
         <v>461</v>
       </c>
       <c r="O56" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="P56" s="16" t="s">
         <v>64</v>
@@ -17994,7 +18000,7 @@
         <v>459</v>
       </c>
       <c r="O57" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="P57" s="16" t="s">
         <v>64</v>
@@ -18064,7 +18070,7 @@
         <v>457</v>
       </c>
       <c r="O58" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="P58" s="16" t="s">
         <v>64</v>
@@ -18134,7 +18140,7 @@
         <v>455</v>
       </c>
       <c r="O59" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="P59" s="16" t="s">
         <v>64</v>
@@ -18204,7 +18210,7 @@
         <v>453</v>
       </c>
       <c r="O60" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P60" s="16" t="s">
         <v>64</v>
@@ -18234,7 +18240,7 @@
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16" t="s">
@@ -18274,7 +18280,7 @@
         <v>451</v>
       </c>
       <c r="O61" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="P61" s="16" t="s">
         <v>64</v>
@@ -18341,10 +18347,10 @@
         <v>140</v>
       </c>
       <c r="N62" s="63" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="O62" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="P62" s="16" t="s">
         <v>64</v>
@@ -18411,10 +18417,10 @@
         <v>140</v>
       </c>
       <c r="N63" s="63" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="O63" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="P63" s="19" t="s">
         <v>61</v>
@@ -18486,7 +18492,7 @@
         <v>447</v>
       </c>
       <c r="O64" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="P64" s="16" t="s">
         <v>69</v>
@@ -18558,7 +18564,7 @@
         <v>446</v>
       </c>
       <c r="O65" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="P65" s="16" t="s">
         <v>64</v>
@@ -18630,7 +18636,7 @@
         <v>445</v>
       </c>
       <c r="O66" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="P66" s="16" t="s">
         <v>69</v>
@@ -18700,7 +18706,7 @@
         <v>443</v>
       </c>
       <c r="O67" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="P67" s="16" t="s">
         <v>64</v>
@@ -18772,7 +18778,7 @@
         <v>442</v>
       </c>
       <c r="O68" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="P68" s="16" t="s">
         <v>64</v>
@@ -18841,10 +18847,10 @@
         <v>140</v>
       </c>
       <c r="N69" s="63" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="O69" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="P69" s="19" t="s">
         <v>61</v>
@@ -18916,7 +18922,7 @@
         <v>395</v>
       </c>
       <c r="O70" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="P70" s="16" t="s">
         <v>64</v>
@@ -18988,7 +18994,7 @@
         <v>441</v>
       </c>
       <c r="O71" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="P71" s="19" t="s">
         <v>61</v>
@@ -19060,7 +19066,7 @@
         <v>440</v>
       </c>
       <c r="O72" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="P72" s="16" t="s">
         <v>64</v>
@@ -19132,7 +19138,7 @@
         <v>439</v>
       </c>
       <c r="O73" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="P73" s="16" t="s">
         <v>64</v>
@@ -19204,7 +19210,7 @@
         <v>438</v>
       </c>
       <c r="O74" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="P74" s="16" t="s">
         <v>64</v>
@@ -19273,10 +19279,10 @@
         <v>140</v>
       </c>
       <c r="N75" s="63" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="O75" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="P75" s="16" t="s">
         <v>64</v>
@@ -19348,7 +19354,7 @@
         <v>437</v>
       </c>
       <c r="O76" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="P76" s="16" t="s">
         <v>64</v>
@@ -19417,7 +19423,7 @@
         <v>433</v>
       </c>
       <c r="O77" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="P77" s="16" t="s">
         <v>64</v>
@@ -19487,7 +19493,7 @@
         <v>435</v>
       </c>
       <c r="O78" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="P78" s="16" t="s">
         <v>64</v>
@@ -19557,7 +19563,7 @@
         <v>431</v>
       </c>
       <c r="O79" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="P79" s="16" t="s">
         <v>64</v>
@@ -19629,7 +19635,7 @@
         <v>430</v>
       </c>
       <c r="O80" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="P80" s="16" t="s">
         <v>69</v>
@@ -19701,7 +19707,7 @@
         <v>391</v>
       </c>
       <c r="O81" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="P81" s="16" t="s">
         <v>64</v>
@@ -19773,7 +19779,7 @@
         <v>174</v>
       </c>
       <c r="O82" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="P82" s="19" t="s">
         <v>61</v>
@@ -19845,7 +19851,7 @@
         <v>389</v>
       </c>
       <c r="O83" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="P83" s="16" t="s">
         <v>64</v>
@@ -19917,7 +19923,7 @@
         <v>388</v>
       </c>
       <c r="O84" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="P84" s="16" t="s">
         <v>64</v>
@@ -19989,7 +19995,7 @@
         <v>386</v>
       </c>
       <c r="O85" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="P85" s="16" t="s">
         <v>64</v>
@@ -20061,7 +20067,7 @@
         <v>384</v>
       </c>
       <c r="O86" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="P86" s="16" t="s">
         <v>64</v>
@@ -20126,11 +20132,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -20144,7 +20150,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="75" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -20155,7 +20161,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="6" t="s">
         <v>94</v>
       </c>
@@ -20164,7 +20170,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="76" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -20175,7 +20181,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="8" t="s">
         <v>99</v>
       </c>
@@ -20184,7 +20190,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="10" t="s">
         <v>101</v>
       </c>
@@ -20193,7 +20199,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="34" t="s">
         <v>103</v>
       </c>
@@ -20202,7 +20208,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="10" t="s">
         <v>122</v>
       </c>
@@ -20277,7 +20283,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="15"/>
@@ -20288,28 +20294,28 @@
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
-        <v>892</v>
+      <c r="A24" s="64" t="s">
+        <v>880</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="s">
-        <v>887</v>
+      <c r="A25" s="64" t="s">
+        <v>875</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
-        <v>888</v>
+      <c r="A26" s="64" t="s">
+        <v>876</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="64" t="s">
         <v>504</v>
       </c>
       <c r="B27" s="28"/>
@@ -21964,16 +21970,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
       <c r="G1" s="36"/>
       <c r="H1" s="19"/>
     </row>
@@ -22050,7 +22056,7 @@
         <v>529</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -22064,7 +22070,7 @@
         <v>532</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>359</v>
@@ -22172,7 +22178,7 @@
         <v>517</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -22234,7 +22240,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>65</v>
@@ -22666,10 +22672,10 @@
         <v>531</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>57</v>
@@ -22690,10 +22696,10 @@
         <v>531</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>57</v>
@@ -22714,10 +22720,10 @@
         <v>531</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>57</v>
@@ -22738,10 +22744,10 @@
         <v>531</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>57</v>
@@ -22762,10 +22768,10 @@
         <v>531</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>57</v>
@@ -22786,10 +22792,10 @@
         <v>531</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>57</v>
@@ -22810,10 +22816,10 @@
         <v>531</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>57</v>
@@ -22834,10 +22840,10 @@
         <v>531</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>57</v>
@@ -22858,10 +22864,10 @@
         <v>531</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F38" s="23" t="s">
         <v>57</v>
@@ -22882,10 +22888,10 @@
         <v>531</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>57</v>
@@ -22906,10 +22912,10 @@
         <v>531</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>57</v>
@@ -22930,10 +22936,10 @@
         <v>531</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>57</v>
@@ -22954,10 +22960,10 @@
         <v>531</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>57</v>
@@ -22978,10 +22984,10 @@
         <v>520</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>57</v>
@@ -23002,10 +23008,10 @@
         <v>520</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>57</v>
@@ -23026,10 +23032,10 @@
         <v>520</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>57</v>
@@ -23050,10 +23056,10 @@
         <v>520</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>57</v>
@@ -23074,10 +23080,10 @@
         <v>520</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>57</v>
@@ -23098,10 +23104,10 @@
         <v>520</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>57</v>
@@ -23122,10 +23128,10 @@
         <v>520</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>57</v>
@@ -23146,10 +23152,10 @@
         <v>520</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>57</v>
@@ -23170,10 +23176,10 @@
         <v>520</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>57</v>
@@ -23194,10 +23200,10 @@
         <v>520</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>57</v>
@@ -23218,10 +23224,10 @@
         <v>520</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>57</v>
@@ -23242,10 +23248,10 @@
         <v>520</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>57</v>
@@ -23266,10 +23272,10 @@
         <v>520</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>57</v>
@@ -23278,7 +23284,7 @@
         <v>517</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -23292,10 +23298,10 @@
         <v>520</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>57</v>
@@ -23304,7 +23310,7 @@
         <v>517</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -23318,10 +23324,10 @@
         <v>520</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>57</v>
@@ -23342,10 +23348,10 @@
         <v>520</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>57</v>
@@ -23366,10 +23372,10 @@
         <v>520</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>57</v>
@@ -23390,10 +23396,10 @@
         <v>520</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>57</v>
@@ -23414,10 +23420,10 @@
         <v>520</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>57</v>
@@ -23438,10 +23444,10 @@
         <v>520</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F62" s="23" t="s">
         <v>57</v>
@@ -23462,10 +23468,10 @@
         <v>520</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>57</v>
@@ -23474,7 +23480,7 @@
         <v>517</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -23488,10 +23494,10 @@
         <v>520</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F64" s="23" t="s">
         <v>57</v>
@@ -23512,10 +23518,10 @@
         <v>520</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F65" s="23" t="s">
         <v>57</v>
@@ -23524,7 +23530,7 @@
         <v>517</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -23538,10 +23544,10 @@
         <v>520</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F66" s="23" t="s">
         <v>57</v>
@@ -23562,10 +23568,10 @@
         <v>520</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F67" s="23" t="s">
         <v>57</v>
@@ -23586,10 +23592,10 @@
         <v>520</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F68" s="23" t="s">
         <v>57</v>
@@ -23610,10 +23616,10 @@
         <v>520</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F69" s="23" t="s">
         <v>57</v>
@@ -23634,10 +23640,10 @@
         <v>520</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F70" s="23" t="s">
         <v>57</v>
@@ -23658,10 +23664,10 @@
         <v>520</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F71" s="23" t="s">
         <v>57</v>
@@ -23682,10 +23688,10 @@
         <v>520</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F72" s="23" t="s">
         <v>57</v>
@@ -23742,7 +23748,7 @@
         <v>517</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -23756,7 +23762,7 @@
         <v>532</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>515</v>
@@ -23840,7 +23846,7 @@
         <v>529</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -23866,7 +23872,7 @@
         <v>517</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -23892,7 +23898,7 @@
         <v>529</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -23918,7 +23924,7 @@
         <v>517</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -23944,7 +23950,7 @@
         <v>529</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -23958,10 +23964,10 @@
         <v>531</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F83" s="23" t="s">
         <v>57</v>
@@ -23970,7 +23976,7 @@
         <v>529</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -23984,10 +23990,10 @@
         <v>531</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F84" s="23" t="s">
         <v>57</v>
@@ -23996,7 +24002,7 @@
         <v>529</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -24010,10 +24016,10 @@
         <v>531</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F85" s="23" t="s">
         <v>57</v>
@@ -24022,7 +24028,7 @@
         <v>529</v>
       </c>
       <c r="H85" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -24036,10 +24042,10 @@
         <v>520</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F86" s="23" t="s">
         <v>57</v>
@@ -24048,7 +24054,7 @@
         <v>529</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -24062,10 +24068,10 @@
         <v>520</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F87" s="23" t="s">
         <v>57</v>
@@ -24074,7 +24080,7 @@
         <v>529</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -24088,10 +24094,10 @@
         <v>520</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F88" s="23" t="s">
         <v>57</v>
@@ -24100,7 +24106,7 @@
         <v>529</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -24150,7 +24156,7 @@
         <v>517</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -24308,7 +24314,7 @@
         <v>533</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>74</v>
@@ -24320,7 +24326,7 @@
         <v>517</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -24334,10 +24340,10 @@
         <v>532</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="F98" s="23" t="s">
         <v>57</v>
@@ -24358,7 +24364,7 @@
         <v>30</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>75</v>
@@ -24382,7 +24388,7 @@
         <v>34</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>76</v>
@@ -24406,10 +24412,10 @@
         <v>561</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F101" s="23" t="s">
         <v>57</v>
@@ -24418,7 +24424,7 @@
         <v>517</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -24468,7 +24474,7 @@
         <v>517</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -24482,10 +24488,10 @@
         <v>532</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="F104" s="23" t="s">
         <v>57</v>
@@ -24602,10 +24608,10 @@
         <v>532</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="F109" s="23" t="s">
         <v>57</v>
@@ -24614,7 +24620,7 @@
         <v>517</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -24724,10 +24730,10 @@
         <v>520</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F114" s="23" t="s">
         <v>57</v>
@@ -24748,10 +24754,10 @@
         <v>520</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F115" s="23" t="s">
         <v>57</v>
@@ -24766,13 +24772,13 @@
         <v>508</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C116" s="19" t="s">
         <v>561</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>130</v>
@@ -24784,7 +24790,7 @@
         <v>517</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -24798,7 +24804,7 @@
         <v>561</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>409</v>
@@ -24810,7 +24816,7 @@
         <v>517</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -24824,7 +24830,7 @@
         <v>564</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>140</v>
@@ -24872,10 +24878,10 @@
         <v>532</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E120" s="23" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="F120" s="23" t="s">
         <v>57</v>
@@ -24938,7 +24944,7 @@
         <v>506</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>531</v>
@@ -24956,7 +24962,7 @@
         <v>529</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -24964,7 +24970,7 @@
         <v>506</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C124" s="19" t="s">
         <v>531</v>
@@ -24982,7 +24988,7 @@
         <v>517</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -24990,7 +24996,7 @@
         <v>506</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>531</v>
@@ -25008,7 +25014,7 @@
         <v>517</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -25016,7 +25022,7 @@
         <v>506</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C126" s="19" t="s">
         <v>531</v>
@@ -25034,7 +25040,7 @@
         <v>517</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -25042,7 +25048,7 @@
         <v>506</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>531</v>
@@ -25060,7 +25066,7 @@
         <v>517</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -25068,7 +25074,7 @@
         <v>506</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C128" s="19" t="s">
         <v>520</v>
@@ -25077,7 +25083,7 @@
         <v>57</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F128" s="23" t="s">
         <v>57</v>
@@ -25086,7 +25092,7 @@
         <v>517</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -25094,7 +25100,7 @@
         <v>506</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>520</v>
@@ -25103,7 +25109,7 @@
         <v>57</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F129" s="23" t="s">
         <v>57</v>
@@ -25112,7 +25118,7 @@
         <v>517</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -25120,7 +25126,7 @@
         <v>506</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>520</v>
@@ -25129,7 +25135,7 @@
         <v>57</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F130" s="23" t="s">
         <v>57</v>
@@ -25138,7 +25144,7 @@
         <v>517</v>
       </c>
       <c r="H130" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -25146,7 +25152,7 @@
         <v>506</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C131" s="19" t="s">
         <v>520</v>
@@ -25155,7 +25161,7 @@
         <v>57</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F131" s="23" t="s">
         <v>57</v>
@@ -25164,7 +25170,7 @@
         <v>517</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -25172,7 +25178,7 @@
         <v>506</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C132" s="19" t="s">
         <v>520</v>
@@ -25190,7 +25196,7 @@
         <v>517</v>
       </c>
       <c r="H132" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -25204,7 +25210,7 @@
         <v>564</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E133" s="23" t="s">
         <v>140</v>
@@ -25216,7 +25222,7 @@
         <v>517</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -25242,7 +25248,7 @@
         <v>517</v>
       </c>
       <c r="H134" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -25256,10 +25262,10 @@
         <v>532</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="F135" s="23" t="s">
         <v>448</v>
@@ -25268,7 +25274,7 @@
         <v>517</v>
       </c>
       <c r="H135" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -25294,7 +25300,7 @@
         <v>529</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -25344,7 +25350,7 @@
         <v>529</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -25370,7 +25376,7 @@
         <v>529</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -25384,10 +25390,10 @@
         <v>520</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E140" s="23" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F140" s="23" t="s">
         <v>57</v>
@@ -25408,10 +25414,10 @@
         <v>520</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E141" s="23" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F141" s="23" t="s">
         <v>57</v>
@@ -25438,13 +25444,13 @@
         <v>140</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G142" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -25464,13 +25470,13 @@
         <v>130</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G143" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H143" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -25484,19 +25490,19 @@
         <v>532</v>
       </c>
       <c r="D144" s="54" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E144" s="57" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G144" s="53" t="s">
         <v>517</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -25516,13 +25522,13 @@
         <v>64</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G145" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H145" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -25542,13 +25548,13 @@
         <v>328</v>
       </c>
       <c r="F146" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G146" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H146" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -25568,13 +25574,13 @@
         <v>547</v>
       </c>
       <c r="F147" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G147" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H147" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -25594,13 +25600,13 @@
         <v>130</v>
       </c>
       <c r="F148" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G148" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H148" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -25620,13 +25626,13 @@
         <v>402</v>
       </c>
       <c r="F149" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G149" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H149" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -25646,13 +25652,13 @@
         <v>58</v>
       </c>
       <c r="F150" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G150" s="53" t="s">
         <v>517</v>
       </c>
       <c r="H150" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -25672,13 +25678,13 @@
         <v>57</v>
       </c>
       <c r="F151" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G151" s="53" t="s">
         <v>517</v>
       </c>
       <c r="H151" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -25692,19 +25698,19 @@
         <v>520</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E152" s="23" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F152" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G152" s="53" t="s">
         <v>517</v>
       </c>
       <c r="H152" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -25724,13 +25730,13 @@
         <v>140</v>
       </c>
       <c r="F153" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G153" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H153" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -25750,13 +25756,13 @@
         <v>499</v>
       </c>
       <c r="F154" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G154" s="53" t="s">
         <v>517</v>
       </c>
       <c r="H154" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -25770,19 +25776,19 @@
         <v>532</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E155" s="57" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G155" s="53" t="s">
         <v>517</v>
       </c>
       <c r="H155" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -25802,13 +25808,13 @@
         <v>64</v>
       </c>
       <c r="F156" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G156" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H156" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -25828,13 +25834,13 @@
         <v>328</v>
       </c>
       <c r="F157" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G157" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H157" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -25854,13 +25860,13 @@
         <v>547</v>
       </c>
       <c r="F158" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G158" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H158" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -25880,13 +25886,13 @@
         <v>130</v>
       </c>
       <c r="F159" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G159" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H159" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -25906,13 +25912,13 @@
         <v>402</v>
       </c>
       <c r="F160" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G160" s="53" t="s">
         <v>529</v>
       </c>
       <c r="H160" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -25932,13 +25938,13 @@
         <v>58</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G161" s="53" t="s">
         <v>517</v>
       </c>
       <c r="H161" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -25958,13 +25964,13 @@
         <v>57</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G162" s="53" t="s">
         <v>517</v>
       </c>
       <c r="H162" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -25978,19 +25984,19 @@
         <v>520</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E163" s="23" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G163" s="53" t="s">
         <v>517</v>
       </c>
       <c r="H163" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -25998,13 +26004,13 @@
         <v>495</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>494</v>
+        <v>881</v>
       </c>
       <c r="C164" s="19" t="s">
         <v>564</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="E164" s="19" t="s">
         <v>140</v>
@@ -26016,7 +26022,7 @@
         <v>529</v>
       </c>
       <c r="H164" s="19" t="s">
-        <v>794</v>
+        <v>882</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -26024,13 +26030,13 @@
         <v>495</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>494</v>
+        <v>881</v>
       </c>
       <c r="C165" s="19" t="s">
         <v>533</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>790</v>
+        <v>883</v>
       </c>
       <c r="E165" s="56" t="s">
         <v>403</v>
@@ -26038,11 +26044,9 @@
       <c r="F165" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G165" s="53" t="s">
-        <v>517</v>
-      </c>
+      <c r="G165" s="53"/>
       <c r="H165" s="19" t="s">
-        <v>794</v>
+        <v>882</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -26050,25 +26054,23 @@
         <v>495</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>494</v>
+        <v>881</v>
       </c>
       <c r="C166" s="19" t="s">
         <v>532</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>791</v>
+        <v>884</v>
       </c>
       <c r="E166" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="F166" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G166" s="53" t="s">
-        <v>517</v>
-      </c>
+      <c r="G166" s="53"/>
       <c r="H166" s="19" t="s">
-        <v>794</v>
+        <v>882</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -26076,13 +26078,13 @@
         <v>495</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>494</v>
+        <v>881</v>
       </c>
       <c r="C167" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>792</v>
+        <v>885</v>
       </c>
       <c r="E167" s="55" t="s">
         <v>64</v>
@@ -26094,7 +26096,7 @@
         <v>529</v>
       </c>
       <c r="H167" s="19" t="s">
-        <v>794</v>
+        <v>882</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -26102,13 +26104,13 @@
         <v>495</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>494</v>
+        <v>881</v>
       </c>
       <c r="C168" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>793</v>
+        <v>886</v>
       </c>
       <c r="E168" s="23" t="s">
         <v>138</v>
@@ -26120,7 +26122,7 @@
         <v>529</v>
       </c>
       <c r="H168" s="19" t="s">
-        <v>794</v>
+        <v>882</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -26128,13 +26130,13 @@
         <v>495</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>494</v>
+        <v>881</v>
       </c>
       <c r="C169" s="19" t="s">
         <v>531</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>785</v>
+        <v>887</v>
       </c>
       <c r="E169" s="23" t="s">
         <v>547</v>
@@ -26146,7 +26148,7 @@
         <v>529</v>
       </c>
       <c r="H169" s="19" t="s">
-        <v>568</v>
+        <v>888</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -26154,13 +26156,13 @@
         <v>495</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>494</v>
+        <v>881</v>
       </c>
       <c r="C170" s="19" t="s">
         <v>531</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>788</v>
+        <v>889</v>
       </c>
       <c r="E170" s="23" t="s">
         <v>130</v>
@@ -26172,7 +26174,7 @@
         <v>529</v>
       </c>
       <c r="H170" s="19" t="s">
-        <v>794</v>
+        <v>882</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -26180,13 +26182,13 @@
         <v>495</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>494</v>
+        <v>881</v>
       </c>
       <c r="C171" s="19" t="s">
         <v>520</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>786</v>
+        <v>890</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>58</v>
@@ -26194,11 +26196,9 @@
       <c r="F171" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G171" s="53" t="s">
-        <v>517</v>
-      </c>
+      <c r="G171" s="53"/>
       <c r="H171" s="19" t="s">
-        <v>567</v>
+        <v>891</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -26206,13 +26206,13 @@
         <v>495</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>494</v>
+        <v>881</v>
       </c>
       <c r="C172" s="19" t="s">
         <v>520</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>787</v>
+        <v>892</v>
       </c>
       <c r="E172" s="19" t="s">
         <v>57</v>
@@ -26220,11 +26220,9 @@
       <c r="F172" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G172" s="53" t="s">
-        <v>517</v>
-      </c>
+      <c r="G172" s="53"/>
       <c r="H172" s="19" t="s">
-        <v>794</v>
+        <v>882</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -26232,16 +26230,16 @@
         <v>495</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>494</v>
+        <v>881</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>565</v>
+        <v>893</v>
       </c>
       <c r="E173" s="19" t="s">
-        <v>565</v>
+        <v>894</v>
       </c>
       <c r="F173" s="23" t="s">
         <v>58</v>
@@ -26250,7 +26248,7 @@
         <v>529</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>794</v>
+        <v>882</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -26312,10 +26310,10 @@
         <v>532</v>
       </c>
       <c r="D176" s="54" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E176" s="57" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F176" s="23" t="s">
         <v>57</v>
@@ -26528,10 +26526,10 @@
         <v>532</v>
       </c>
       <c r="D185" s="54" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E185" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="F185" s="23" t="s">
         <v>57</v>
@@ -26792,10 +26790,10 @@
         <v>532</v>
       </c>
       <c r="D196" s="54" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E196" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="F196" s="23" t="s">
         <v>57</v>
@@ -27056,10 +27054,10 @@
         <v>532</v>
       </c>
       <c r="D207" s="54" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E207" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="F207" s="23" t="s">
         <v>57</v>
@@ -27316,10 +27314,10 @@
         <v>532</v>
       </c>
       <c r="D218" s="54" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E218" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="F218" s="23" t="s">
         <v>57</v>
@@ -27569,10 +27567,10 @@
         <v>532</v>
       </c>
       <c r="D229" s="54" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E229" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="F229" s="23" t="s">
         <v>57</v>
@@ -27822,10 +27820,10 @@
         <v>532</v>
       </c>
       <c r="D240" s="54" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E240" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="F240" s="23" t="s">
         <v>57</v>
@@ -28075,10 +28073,10 @@
         <v>532</v>
       </c>
       <c r="D251" s="54" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E251" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="F251" s="23" t="s">
         <v>57</v>
@@ -28328,10 +28326,10 @@
         <v>532</v>
       </c>
       <c r="D262" s="54" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E262" s="57" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F262" s="23" t="s">
         <v>57</v>
@@ -28535,10 +28533,10 @@
         <v>532</v>
       </c>
       <c r="D271" s="54" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E271" s="59" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F271" s="23" t="s">
         <v>57</v>
@@ -28650,10 +28648,10 @@
         <v>532</v>
       </c>
       <c r="D276" s="54" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E276" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="F276" s="23" t="s">
         <v>57</v>
@@ -28771,10 +28769,10 @@
         <v>532</v>
       </c>
       <c r="D281" s="54" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E281" s="57" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F281" s="53" t="s">
         <v>448</v>
@@ -28895,10 +28893,10 @@
         <v>532</v>
       </c>
       <c r="D286" s="54" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E286" s="57" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F286" s="23" t="s">
         <v>57</v>
@@ -29240,10 +29238,10 @@
         <v>532</v>
       </c>
       <c r="D301" s="54" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E301" s="59" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F301" s="23" t="s">
         <v>57</v>
@@ -29355,10 +29353,10 @@
         <v>532</v>
       </c>
       <c r="D306" s="54" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E306" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="F306" s="23" t="s">
         <v>57</v>
@@ -29563,10 +29561,10 @@
         <v>532</v>
       </c>
       <c r="D315" s="54" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E315" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="F315" s="23" t="s">
         <v>57</v>
@@ -29816,10 +29814,10 @@
         <v>532</v>
       </c>
       <c r="D326" s="54" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E326" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="F326" s="23" t="s">
         <v>57</v>
@@ -30069,10 +30067,10 @@
         <v>532</v>
       </c>
       <c r="D337" s="54" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E337" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="F337" s="23" t="s">
         <v>57</v>
@@ -30322,10 +30320,10 @@
         <v>532</v>
       </c>
       <c r="D348" s="54" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E348" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="F348" s="23" t="s">
         <v>57</v>
@@ -30575,10 +30573,10 @@
         <v>532</v>
       </c>
       <c r="D359" s="54" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E359" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="F359" s="23" t="s">
         <v>57</v>
@@ -30828,10 +30826,10 @@
         <v>532</v>
       </c>
       <c r="D370" s="54" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E370" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="F370" s="23" t="s">
         <v>57</v>
@@ -30943,10 +30941,10 @@
         <v>532</v>
       </c>
       <c r="D375" s="54" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E375" s="57" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F375" s="23" t="s">
         <v>57</v>
@@ -31196,10 +31194,10 @@
         <v>532</v>
       </c>
       <c r="D386" s="54" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E386" s="57" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F386" s="23" t="s">
         <v>57</v>
@@ -31449,10 +31447,10 @@
         <v>532</v>
       </c>
       <c r="D397" s="54" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E397" s="57" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F397" s="23" t="s">
         <v>57</v>
@@ -31702,10 +31700,10 @@
         <v>532</v>
       </c>
       <c r="D408" s="54" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E408" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="F408" s="23" t="s">
         <v>57</v>
@@ -31958,10 +31956,10 @@
         <v>532</v>
       </c>
       <c r="D419" s="54" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E419" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="F419" s="23" t="s">
         <v>57</v>
@@ -32221,10 +32219,10 @@
         <v>532</v>
       </c>
       <c r="D430" s="54" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E430" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="F430" s="53" t="s">
         <v>448</v>
@@ -32371,10 +32369,10 @@
         <v>532</v>
       </c>
       <c r="D436" s="54" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E436" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="F436" s="23" t="s">
         <v>57</v>
@@ -32624,10 +32622,10 @@
         <v>532</v>
       </c>
       <c r="D447" s="54" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E447" s="57" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F447" s="23" t="s">
         <v>57</v>
@@ -32739,10 +32737,10 @@
         <v>532</v>
       </c>
       <c r="D452" s="54" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E452" s="57" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F452" s="23" t="s">
         <v>57</v>
@@ -32922,7 +32920,7 @@
         <v>217</v>
       </c>
       <c r="E460" s="23" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="F460" s="23" t="s">
         <v>57</v>
@@ -32942,10 +32940,10 @@
         <v>532</v>
       </c>
       <c r="D461" s="54" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E461" s="57" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="F461" s="23" t="s">
         <v>57</v>
@@ -33057,10 +33055,10 @@
         <v>532</v>
       </c>
       <c r="D466" s="54" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E466" s="57" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F466" s="23" t="s">
         <v>57</v>
@@ -33402,10 +33400,10 @@
         <v>532</v>
       </c>
       <c r="D481" s="54" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E481" s="57" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F481" s="23" t="s">
         <v>57</v>
@@ -33517,10 +33515,10 @@
         <v>532</v>
       </c>
       <c r="D486" s="54" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E486" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="F486" s="23" t="s">
         <v>57</v>
@@ -33724,10 +33722,10 @@
         <v>532</v>
       </c>
       <c r="D495" s="54" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E495" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="F495" s="23" t="s">
         <v>57</v>
@@ -33977,10 +33975,10 @@
         <v>532</v>
       </c>
       <c r="D506" s="54" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E506" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="F506" s="23" t="s">
         <v>57</v>
@@ -34210,7 +34208,7 @@
         <v>185</v>
       </c>
       <c r="E516" s="23" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="F516" s="23" t="s">
         <v>57</v>
@@ -34230,10 +34228,10 @@
         <v>532</v>
       </c>
       <c r="D517" s="54" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E517" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="F517" s="23" t="s">
         <v>57</v>
@@ -34483,10 +34481,10 @@
         <v>532</v>
       </c>
       <c r="D528" s="54" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E528" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="F528" s="23" t="s">
         <v>57</v>
@@ -34736,10 +34734,10 @@
         <v>532</v>
       </c>
       <c r="D539" s="54" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E539" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="F539" s="23" t="s">
         <v>57</v>
@@ -34851,10 +34849,10 @@
         <v>532</v>
       </c>
       <c r="D544" s="54" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E544" s="57" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F544" s="23" t="s">
         <v>57</v>
@@ -35196,10 +35194,10 @@
         <v>532</v>
       </c>
       <c r="D559" s="54" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E559" s="57" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F559" s="23" t="s">
         <v>57</v>
@@ -35311,10 +35309,10 @@
         <v>532</v>
       </c>
       <c r="D564" s="54" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E564" s="57" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F564" s="23" t="s">
         <v>57</v>
@@ -35564,10 +35562,10 @@
         <v>532</v>
       </c>
       <c r="D575" s="54" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E575" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="F575" s="23" t="s">
         <v>57</v>
@@ -35817,10 +35815,10 @@
         <v>532</v>
       </c>
       <c r="D586" s="54" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E586" s="57" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F586" s="23" t="s">
         <v>57</v>
@@ -36254,10 +36252,10 @@
         <v>532</v>
       </c>
       <c r="D605" s="54" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E605" s="57" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F605" s="23" t="s">
         <v>57</v>
@@ -36567,24 +36565,24 @@
   <cols>
     <col min="1" max="2" width="18.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="91.42578125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="84.28515625" style="75" customWidth="1"/>
+    <col min="4" max="4" width="91.42578125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="84.28515625" style="65" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="53" customWidth="1"/>
     <col min="7" max="7" width="75.7109375" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
       <c r="G1" s="61"/>
       <c r="H1" s="19"/>
     </row>
@@ -36598,10 +36596,10 @@
       <c r="C2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="65" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -36618,124 +36616,124 @@
       <c r="A3" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="66" t="s">
         <v>503</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="66" t="s">
         <v>531</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="77" t="s">
-        <v>889</v>
-      </c>
-      <c r="G3" s="77" t="s">
+      <c r="F3" s="67" t="s">
+        <v>877</v>
+      </c>
+      <c r="G3" s="67" t="s">
         <v>517</v>
       </c>
-      <c r="H3" s="76" t="s">
-        <v>575</v>
+      <c r="H3" s="66" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="66" t="s">
         <v>503</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="66" t="s">
         <v>531</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="67" t="s">
         <v>409</v>
       </c>
-      <c r="F4" s="77" t="s">
-        <v>890</v>
-      </c>
-      <c r="G4" s="77" t="s">
+      <c r="F4" s="67" t="s">
+        <v>878</v>
+      </c>
+      <c r="G4" s="67" t="s">
         <v>517</v>
       </c>
-      <c r="H4" s="76" t="s">
-        <v>575</v>
+      <c r="H4" s="66" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="66" t="s">
         <v>503</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="66" t="s">
         <v>520</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="67" t="s">
+        <v>573</v>
+      </c>
+      <c r="E5" s="67" t="s">
         <v>576</v>
       </c>
-      <c r="E5" s="77" t="s">
-        <v>579</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>889</v>
-      </c>
-      <c r="G5" s="78" t="s">
+      <c r="F5" s="67" t="s">
+        <v>877</v>
+      </c>
+      <c r="G5" s="68" t="s">
         <v>517</v>
       </c>
-      <c r="H5" s="76" t="s">
-        <v>575</v>
+      <c r="H5" s="66" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="66" t="s">
         <v>503</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="66" t="s">
         <v>520</v>
       </c>
-      <c r="D6" s="77" t="s">
-        <v>576</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>577</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>890</v>
-      </c>
-      <c r="H6" s="76" t="s">
-        <v>575</v>
+      <c r="D6" s="67" t="s">
+        <v>573</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>574</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>878</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="66" t="s">
         <v>503</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="79" t="s">
-        <v>891</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>891</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>570</v>
-      </c>
-      <c r="H7" s="79" t="s">
-        <v>891</v>
+      <c r="D7" s="69" t="s">
+        <v>879</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>879</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -36749,17 +36747,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058BEFEFAD17A4B43A8378381BF28CF4F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61556453c3d4cfbe4714da52328c09a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38934ba0-d0c8-4ff1-b39d-50890708cb62" xmlns:ns3="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xmlns:ns4="ab274330-b409-4ff8-b8ad-c1dc18cc66a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8714ab872510242edcc52d3716bf4cc" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
@@ -37013,6 +37000,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -37023,17 +37021,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B50CB2D-2DFF-4575-A63A-BEEBE8303CFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
-    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75DE27E3-7527-47FA-8990-24854D9E1F7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37053,6 +37040,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B50CB2D-2DFF-4575-A63A-BEEBE8303CFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
+    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3AEA0AE-5712-4A1B-A8B1-99B67FD7058A}">
   <ds:schemaRefs>
